--- a/Evaluate sorting algorithms.xlsx
+++ b/Evaluate sorting algorithms.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UIT\Cấu trúc dữ liệu và giải thuật\Các Thuật Toán Sắp Xếp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://linuxvn-my.sharepoint.com/personal/ga59_linuxteamvietnam_edu_vn/Documents/UIT/Cấu trúc dữ liệu và giải thuật/evaluate-sorting-algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6784F045-3861-49D4-AA08-3BE9A77498E5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{6784F045-3861-49D4-AA08-3BE9A77498E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{032D599D-DE08-4CC7-B5BA-9F6867A65735}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{763B0E15-42E0-4774-993B-D559CEC4F9AD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{763B0E15-42E0-4774-993B-D559CEC4F9AD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tổng hợp thời gian chạy" sheetId="1" r:id="rId1"/>
+    <sheet name="Execute time summary" sheetId="1" r:id="rId1"/>
     <sheet name="Interchange Sort" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="Quick Sort" sheetId="3" state="hidden" r:id="rId3"/>
     <sheet name="Radix Sort" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Execute time summary'!$B$5:$F$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Interchange Sort'!$A$2:$E$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Quick Sort'!$A$2:$E$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Radix Sort'!$A$2:$E$13</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tổng hợp thời gian chạy'!$B$5:$F$5</definedName>
-    <definedName name="ThuậtToánTheoRadioButton">INDIRECT("'"&amp;INDIRECT("B"&amp;'Tổng hợp thời gian chạy'!XEV1048575+5)&amp;"'!A2:E13")</definedName>
+    <definedName name="AlgorithmRadioButton">INDIRECT("'"&amp;INDIRECT("B"&amp;'Execute time summary'!XEV1048575+5)&amp;"'!A2:E13")</definedName>
   </definedNames>
   <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
@@ -33,7 +33,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
   <si>
     <t>Interchange Sort</t>
   </si>
@@ -52,28 +55,25 @@
     <t>Radix Sort</t>
   </si>
   <si>
-    <t>Tên thuật toán</t>
+    <t>Ascending</t>
   </si>
   <si>
-    <t>Input tăng dần</t>
+    <t>Decending</t>
   </si>
   <si>
-    <t>Input giảm dần</t>
+    <t>Randomize</t>
   </si>
   <si>
-    <t>Input ngẫu nhiên</t>
+    <t>Average</t>
   </si>
   <si>
-    <t>Thời gian chạy trung bình</t>
+    <t>Algorithm</t>
   </si>
   <si>
-    <t>Tập dữ liệu</t>
+    <t>Input file</t>
   </si>
   <si>
-    <t>Thời gian chạy (nano giây)</t>
-  </si>
-  <si>
-    <t>Tập dữ liệu đầu vào</t>
+    <t>Execute time (nanosecond)</t>
   </si>
 </sst>
 </file>
@@ -234,8 +234,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -251,10 +253,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -289,11 +293,11 @@
     <c:title>
       <c:tx>
         <c:strRef>
-          <c:f>'Tổng hợp thời gian chạy'!$C$1</c:f>
+          <c:f>'Execute time summary'!$C$1</c:f>
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>So sánh thời gian chạy các thuật toán với n = 1000</c:v>
+              <c:v>Compare algorithms with n = 1000</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -387,7 +391,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tổng hợp thời gian chạy'!$B$6</c:f>
+              <c:f>'Execute time summary'!$B$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -431,24 +435,24 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Tổng hợp thời gian chạy'!$C$5:$E$5</c:f>
+              <c:f>'Execute time summary'!$C$5:$E$5</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Input tăng dần</c:v>
+                  <c:v>Ascending</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Input giảm dần</c:v>
+                  <c:v>Decending</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Input ngẫu nhiên</c:v>
+                  <c:v>Randomize</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tổng hợp thời gian chạy'!$C$6:$E$6</c:f>
+              <c:f>'Execute time summary'!$C$6:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0\ \n\s</c:formatCode>
                 <c:ptCount val="3"/>
@@ -475,7 +479,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tổng hợp thời gian chạy'!$B$7</c:f>
+              <c:f>'Execute time summary'!$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -519,24 +523,24 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Tổng hợp thời gian chạy'!$C$5:$E$5</c:f>
+              <c:f>'Execute time summary'!$C$5:$E$5</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Input tăng dần</c:v>
+                  <c:v>Ascending</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Input giảm dần</c:v>
+                  <c:v>Decending</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Input ngẫu nhiên</c:v>
+                  <c:v>Randomize</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tổng hợp thời gian chạy'!$C$7:$E$7</c:f>
+              <c:f>'Execute time summary'!$C$7:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>#,##0\ \n\s</c:formatCode>
                 <c:ptCount val="3"/>
@@ -563,7 +567,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tổng hợp thời gian chạy'!$B$8</c:f>
+              <c:f>'Execute time summary'!$B$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -607,24 +611,24 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Tổng hợp thời gian chạy'!$C$5:$E$5</c:f>
+              <c:f>'Execute time summary'!$C$5:$E$5</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Input tăng dần</c:v>
+                  <c:v>Ascending</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Input giảm dần</c:v>
+                  <c:v>Decending</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Input ngẫu nhiên</c:v>
+                  <c:v>Randomize</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tổng hợp thời gian chạy'!$C$8:$E$8</c:f>
+              <c:f>'Execute time summary'!$C$8:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>#,##0\ \n\s</c:formatCode>
                 <c:ptCount val="3"/>
@@ -941,11 +945,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tổng hợp thời gian chạy'!$F$5</c:f>
+              <c:f>'Execute time summary'!$F$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Thời gian chạy trung bình</c:v>
+                  <c:v>Average</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1048,7 +1052,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tổng hợp thời gian chạy'!$B$6:$B$8</c:f>
+              <c:f>'Execute time summary'!$B$6:$B$8</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1065,7 +1069,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tổng hợp thời gian chạy'!$F$6:$F$8</c:f>
+              <c:f>'Execute time summary'!$F$6:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>#,##0\ \n\s</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1277,11 +1281,11 @@
     <c:title>
       <c:tx>
         <c:strRef>
-          <c:f>'Tổng hợp thời gian chạy'!$C$3</c:f>
+          <c:f>'Execute time summary'!$C$3</c:f>
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Interchange Sort</c:v>
+              <c:v>Radix Sort</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -1327,11 +1331,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tổng hợp thời gian chạy'!$K$3</c:f>
+              <c:f>'Execute time summary'!$K$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Input tăng dần</c:v>
+                  <c:v>Ascending</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1377,7 +1381,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Tổng hợp thời gian chạy'!$J$4:$J$13</c:f>
+              <c:f>'Execute time summary'!$J$4:$J$13</c:f>
               <c:numCache>
                 <c:formatCode>General\.\t\x\t</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1416,39 +1420,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tổng hợp thời gian chạy'!$K$4:$K$13</c:f>
+              <c:f>'Execute time summary'!$K$4:$K$13</c:f>
               <c:numCache>
                 <c:formatCode>General\ \m\s</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>79</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>115</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>161</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>218</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>277</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>352</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1464,11 +1468,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tổng hợp thời gian chạy'!$L$3</c:f>
+              <c:f>'Execute time summary'!$L$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Input giảm dần</c:v>
+                  <c:v>Decending</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1514,7 +1518,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Tổng hợp thời gian chạy'!$J$4:$J$13</c:f>
+              <c:f>'Execute time summary'!$J$4:$J$13</c:f>
               <c:numCache>
                 <c:formatCode>General\.\t\x\t</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1553,39 +1557,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tổng hợp thời gian chạy'!$L$4:$L$13</c:f>
+              <c:f>'Execute time summary'!$L$4:$L$13</c:f>
               <c:numCache>
                 <c:formatCode>General\ \m\s</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>93</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>282</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>509</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>820</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1223</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1711</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2266</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2912</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3861</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1601,11 +1605,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tổng hợp thời gian chạy'!$M$3</c:f>
+              <c:f>'Execute time summary'!$M$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Input ngẫu nhiên</c:v>
+                  <c:v>Randomize</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1651,7 +1655,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Tổng hợp thời gian chạy'!$J$4:$J$13</c:f>
+              <c:f>'Execute time summary'!$J$4:$J$13</c:f>
               <c:numCache>
                 <c:formatCode>General\.\t\x\t</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1690,39 +1694,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tổng hợp thời gian chạy'!$M$4:$M$13</c:f>
+              <c:f>'Execute time summary'!$M$4:$M$13</c:f>
               <c:numCache>
                 <c:formatCode>General\ \m\s</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>91</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>139</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>201</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>267</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>344</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>434</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>529</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>639</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1753,11 +1757,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tổng hợp thời gian chạy'!$N$3</c:f>
+              <c:f>'Execute time summary'!$N$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Thời gian chạy trung bình</c:v>
+                  <c:v>Average</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1782,39 +1786,39 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Tổng hợp thời gian chạy'!$N$4:$N$13</c:f>
+              <c:f>'Execute time summary'!$N$4:$N$13</c:f>
               <c:numCache>
                 <c:formatCode>General\ \m\s</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5.6666999999999996</c:v>
+                  <c:v>0.66669999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47</c:v>
+                  <c:v>0.66669999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>132.66669999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>232.33330000000001</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>366.66669999999999</c:v>
+                  <c:v>1.3332999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>535</c:v>
+                  <c:v>1.6667000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>738.66669999999999</c:v>
+                  <c:v>1.3332999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>972.66669999999999</c:v>
+                  <c:v>2.3332999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1239.3333</c:v>
+                  <c:v>2.3332999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1617.3333</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3635,7 +3639,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" checked="Checked" firstButton="1" fmlaLink="$A$1" lockText="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" firstButton="1" fmlaLink="$A$1" lockText="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3643,7 +3647,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" checked="Checked" lockText="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3731,7 +3735,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>403860</xdr:colOff>
+          <xdr:colOff>400050</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -3782,7 +3786,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3794,6 +3798,7 @@
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:latin typeface="Segoe UI"/>
+                  <a:ea typeface="Segoe UI"/>
                   <a:cs typeface="Segoe UI"/>
                 </a:rPr>
                 <a:t>Interchange Sort</a:t>
@@ -3817,7 +3822,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>426720</xdr:colOff>
+          <xdr:colOff>428625</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -3868,7 +3873,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3880,6 +3885,7 @@
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:latin typeface="Segoe UI"/>
+                  <a:ea typeface="Segoe UI"/>
                   <a:cs typeface="Segoe UI"/>
                 </a:rPr>
                 <a:t>Quick Sort</a:t>
@@ -3903,7 +3909,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>1303020</xdr:colOff>
+          <xdr:colOff>1304925</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -3954,7 +3960,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3966,6 +3972,7 @@
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:latin typeface="Segoe UI"/>
+                  <a:ea typeface="Segoe UI"/>
                   <a:cs typeface="Segoe UI"/>
                 </a:rPr>
                 <a:t>Radix Sort</a:t>
@@ -4314,374 +4321,375 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85473283-2098-4D32-B51B-39CB44D3C71B}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="6" customWidth="1"/>
-    <col min="10" max="12" width="13.77734375" customWidth="1"/>
-    <col min="13" max="13" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="4" t="str">
-        <f>"So sánh thời gian chạy các thuật toán với n = " &amp;E2</f>
-        <v>So sánh thời gian chạy các thuật toán với n = 1000</v>
+        <f>"Compare algorithms with n = " &amp;E2</f>
+        <v>Compare algorithms with n = 1000</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="8">
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C3" s="4" t="str">
         <f ca="1">INDIRECT("B"&amp;A1 + 5)</f>
-        <v>Interchange Sort</v>
-      </c>
-      <c r="J3" s="6" t="str">
-        <f t="array" aca="1" ref="J3:N13" ca="1">ThuậtToánTheoRadioButton</f>
-        <v>Tập dữ liệu</v>
-      </c>
-      <c r="K3" s="6" t="str">
+        <v>Radix Sort</v>
+      </c>
+      <c r="J3" s="15" t="str">
+        <f t="array" aca="1" ref="J3:N13" ca="1">AlgorithmRadioButton</f>
+        <v>Input file</v>
+      </c>
+      <c r="K3" s="15" t="str">
         <f ca="1"/>
-        <v>Input tăng dần</v>
-      </c>
-      <c r="L3" s="6" t="str">
+        <v>Ascending</v>
+      </c>
+      <c r="L3" s="15" t="str">
         <f ca="1"/>
-        <v>Input giảm dần</v>
-      </c>
-      <c r="M3" s="6" t="str">
+        <v>Decending</v>
+      </c>
+      <c r="M3" s="15" t="str">
         <f ca="1"/>
-        <v>Input ngẫu nhiên</v>
-      </c>
-      <c r="N3" s="6" t="str">
+        <v>Randomize</v>
+      </c>
+      <c r="N3" s="15" t="str">
         <f ca="1"/>
-        <v>Thời gian chạy trung bình</v>
+        <v>Average</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C4" s="8" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
-      <c r="J4" s="14">
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12"/>
+      <c r="J4" s="7">
         <f ca="1"/>
         <v>1000</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="6">
         <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="L4" s="13">
+        <v>0</v>
+      </c>
+      <c r="L4" s="6">
         <f ca="1"/>
-        <v>10</v>
-      </c>
-      <c r="M4" s="13">
+        <v>1</v>
+      </c>
+      <c r="M4" s="6">
         <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="N4" s="6">
+        <f ca="1"/>
+        <v>0.66669999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="13">
-        <f ca="1"/>
-        <v>5.6666999999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="14">
+      <c r="J5" s="7">
         <f ca="1"/>
         <v>3000</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="6">
         <f ca="1"/>
-        <v>9</v>
-      </c>
-      <c r="L5" s="13">
+        <v>1</v>
+      </c>
+      <c r="L5" s="6">
         <f ca="1"/>
-        <v>93</v>
-      </c>
-      <c r="M5" s="13">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
         <f ca="1"/>
-        <v>39</v>
-      </c>
-      <c r="N5" s="13">
+        <v>1</v>
+      </c>
+      <c r="N5" s="6">
         <f ca="1"/>
-        <v>47</v>
+        <v>0.66669999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="5">
         <f ca="1">INDEX(INDIRECT("'"&amp;$B6&amp;"'!$B$3:$E$13"),MATCH($E$2,'Interchange Sort'!$A$3:$A$13,0),COLUMN() - 2) * 1000000</f>
         <v>1000000</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="5">
         <f ca="1">INDEX(INDIRECT("'"&amp;$B6&amp;"'!$B$3:$E$13"),MATCH($E$2,'Interchange Sort'!$A$3:$A$13,0),COLUMN() - 2) * 1000000</f>
         <v>10000000</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="5">
         <f ca="1">INDEX(INDIRECT("'"&amp;$B6&amp;"'!$B$3:$E$13"),MATCH($E$2,'Interchange Sort'!$A$3:$A$13,0),COLUMN() - 2) * 1000000</f>
         <v>6000000</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="5">
         <f ca="1">INDEX(INDIRECT("'"&amp;$B6&amp;"'!$B$3:$E$13"),MATCH($E$2,'Interchange Sort'!$A$3:$A$13,0),COLUMN() - 2) * 1000000</f>
         <v>5666700</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="7">
         <f ca="1"/>
         <v>5000</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="6">
         <f ca="1"/>
-        <v>25</v>
-      </c>
-      <c r="L6" s="13">
+        <v>1</v>
+      </c>
+      <c r="L6" s="6">
         <f ca="1"/>
-        <v>282</v>
-      </c>
-      <c r="M6" s="13">
+        <v>1</v>
+      </c>
+      <c r="M6" s="6">
         <f ca="1"/>
-        <v>91</v>
-      </c>
-      <c r="N6" s="13">
+        <v>1</v>
+      </c>
+      <c r="N6" s="6">
         <f ca="1"/>
-        <v>132.66669999999999</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="5">
         <f ca="1">INDEX(INDIRECT("'"&amp;$B7&amp;"'!$B$3:$E$13"),MATCH($E$2,'Interchange Sort'!$A$3:$A$13,0),COLUMN() - 2) * 1000000</f>
         <v>0</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="5">
         <f ca="1">INDEX(INDIRECT("'"&amp;$B7&amp;"'!$B$3:$E$13"),MATCH($E$2,'Interchange Sort'!$A$3:$A$13,0),COLUMN() - 2) * 1000000</f>
         <v>0</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="5">
         <f ca="1">INDEX(INDIRECT("'"&amp;$B7&amp;"'!$B$3:$E$13"),MATCH($E$2,'Interchange Sort'!$A$3:$A$13,0),COLUMN() - 2) * 1000000</f>
         <v>0</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="5">
         <f ca="1">INDEX(INDIRECT("'"&amp;$B7&amp;"'!$B$3:$E$13"),MATCH($E$2,'Interchange Sort'!$A$3:$A$13,0),COLUMN() - 2) * 1000000</f>
         <v>0</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="7">
         <f ca="1"/>
         <v>7000</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="6">
         <f ca="1"/>
-        <v>49</v>
-      </c>
-      <c r="L7" s="13">
+        <v>1</v>
+      </c>
+      <c r="L7" s="6">
         <f ca="1"/>
-        <v>509</v>
-      </c>
-      <c r="M7" s="13">
+        <v>1</v>
+      </c>
+      <c r="M7" s="6">
         <f ca="1"/>
-        <v>139</v>
-      </c>
-      <c r="N7" s="13">
+        <v>1</v>
+      </c>
+      <c r="N7" s="6">
         <f ca="1"/>
-        <v>232.33330000000001</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="5">
         <f ca="1">INDEX(INDIRECT("'"&amp;$B8&amp;"'!$B$3:$E$13"),MATCH($E$2,'Interchange Sort'!$A$3:$A$13,0),COLUMN() - 2) * 1000000</f>
         <v>0</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="5">
         <f ca="1">INDEX(INDIRECT("'"&amp;$B8&amp;"'!$B$3:$E$13"),MATCH($E$2,'Interchange Sort'!$A$3:$A$13,0),COLUMN() - 2) * 1000000</f>
         <v>1000000</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="5">
         <f ca="1">INDEX(INDIRECT("'"&amp;$B8&amp;"'!$B$3:$E$13"),MATCH($E$2,'Interchange Sort'!$A$3:$A$13,0),COLUMN() - 2) * 1000000</f>
         <v>1000000</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="5">
         <f ca="1">INDEX(INDIRECT("'"&amp;$B8&amp;"'!$B$3:$E$13"),MATCH($E$2,'Interchange Sort'!$A$3:$A$13,0),COLUMN() - 2) * 1000000</f>
         <v>666700</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="7">
         <f ca="1"/>
         <v>9000</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="6">
         <f ca="1"/>
-        <v>79</v>
-      </c>
-      <c r="L8" s="13">
+        <v>2</v>
+      </c>
+      <c r="L8" s="6">
         <f ca="1"/>
-        <v>820</v>
-      </c>
-      <c r="M8" s="13">
+        <v>1</v>
+      </c>
+      <c r="M8" s="6">
         <f ca="1"/>
-        <v>201</v>
-      </c>
-      <c r="N8" s="13">
+        <v>1</v>
+      </c>
+      <c r="N8" s="6">
         <f ca="1"/>
-        <v>366.66669999999999</v>
+        <v>1.3332999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="J9" s="14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J9" s="7">
         <f ca="1"/>
         <v>11000</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="6">
         <f ca="1"/>
-        <v>115</v>
-      </c>
-      <c r="L9" s="13">
+        <v>2</v>
+      </c>
+      <c r="L9" s="6">
         <f ca="1"/>
-        <v>1223</v>
-      </c>
-      <c r="M9" s="13">
+        <v>1</v>
+      </c>
+      <c r="M9" s="6">
         <f ca="1"/>
-        <v>267</v>
-      </c>
-      <c r="N9" s="13">
+        <v>2</v>
+      </c>
+      <c r="N9" s="6">
         <f ca="1"/>
-        <v>535</v>
+        <v>1.6667000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="J10" s="14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J10" s="7">
         <f ca="1"/>
         <v>13000</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="6">
         <f ca="1"/>
-        <v>161</v>
-      </c>
-      <c r="L10" s="13">
+        <v>2</v>
+      </c>
+      <c r="L10" s="6">
         <f ca="1"/>
-        <v>1711</v>
-      </c>
-      <c r="M10" s="13">
+        <v>1</v>
+      </c>
+      <c r="M10" s="6">
         <f ca="1"/>
-        <v>344</v>
-      </c>
-      <c r="N10" s="13">
+        <v>1</v>
+      </c>
+      <c r="N10" s="6">
         <f ca="1"/>
-        <v>738.66669999999999</v>
+        <v>1.3332999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="J11" s="14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J11" s="7">
         <f ca="1"/>
         <v>15000</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="6">
         <f ca="1"/>
-        <v>218</v>
-      </c>
-      <c r="L11" s="13">
+        <v>3</v>
+      </c>
+      <c r="L11" s="6">
         <f ca="1"/>
-        <v>2266</v>
-      </c>
-      <c r="M11" s="13">
+        <v>3</v>
+      </c>
+      <c r="M11" s="6">
         <f ca="1"/>
-        <v>434</v>
-      </c>
-      <c r="N11" s="13">
+        <v>1</v>
+      </c>
+      <c r="N11" s="6">
         <f ca="1"/>
-        <v>972.66669999999999</v>
+        <v>2.3332999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="J12" s="14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J12" s="7">
         <f ca="1"/>
         <v>17000</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="6">
         <f ca="1"/>
-        <v>277</v>
-      </c>
-      <c r="L12" s="13">
+        <v>2</v>
+      </c>
+      <c r="L12" s="6">
         <f ca="1"/>
-        <v>2912</v>
-      </c>
-      <c r="M12" s="13">
+        <v>3</v>
+      </c>
+      <c r="M12" s="6">
         <f ca="1"/>
-        <v>529</v>
-      </c>
-      <c r="N12" s="13">
+        <v>2</v>
+      </c>
+      <c r="N12" s="6">
         <f ca="1"/>
-        <v>1239.3333</v>
+        <v>2.3332999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="J13" s="14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J13" s="7">
         <f ca="1"/>
         <v>19000</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="6">
         <f ca="1"/>
-        <v>352</v>
-      </c>
-      <c r="L13" s="13">
+        <v>3</v>
+      </c>
+      <c r="L13" s="6">
         <f ca="1"/>
-        <v>3861</v>
-      </c>
-      <c r="M13" s="13">
+        <v>3</v>
+      </c>
+      <c r="M13" s="6">
         <f ca="1"/>
-        <v>639</v>
-      </c>
-      <c r="N13" s="13">
+        <v>3</v>
+      </c>
+      <c r="N13" s="6">
         <f ca="1"/>
-        <v>1617.3333</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -4710,7 +4718,7 @@
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>403860</xdr:colOff>
+                    <xdr:colOff>400050</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -4732,7 +4740,7 @@
                   </from>
                   <to>
                     <xdr:col>12</xdr:col>
-                    <xdr:colOff>426720</xdr:colOff>
+                    <xdr:colOff>428625</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -4754,7 +4762,7 @@
                   </from>
                   <to>
                     <xdr:col>13</xdr:col>
-                    <xdr:colOff>1303020</xdr:colOff>
+                    <xdr:colOff>1304925</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -4783,48 +4791,49 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{394E2994-4B90-43ED-8698-A3345BEC6FBF}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1000</v>
       </c>
@@ -4841,7 +4850,7 @@
         <v>5.6666999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3000</v>
       </c>
@@ -4858,7 +4867,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5000</v>
       </c>
@@ -4875,7 +4884,7 @@
         <v>132.66669999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>7000</v>
       </c>
@@ -4892,7 +4901,7 @@
         <v>232.33330000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>9000</v>
       </c>
@@ -4909,7 +4918,7 @@
         <v>366.66669999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>11000</v>
       </c>
@@ -4926,7 +4935,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>13000</v>
       </c>
@@ -4943,7 +4952,7 @@
         <v>738.66669999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>15000</v>
       </c>
@@ -4960,7 +4969,7 @@
         <v>972.66669999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>17000</v>
       </c>
@@ -4977,7 +4986,7 @@
         <v>1239.3333</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>19000</v>
       </c>
@@ -4994,7 +5003,7 @@
         <v>1617.3333</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>21000</v>
       </c>
@@ -5022,48 +5031,49 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{507F603D-8EAA-40DB-AAA5-76926D9863F1}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1000</v>
       </c>
@@ -5080,7 +5090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3000</v>
       </c>
@@ -5097,7 +5107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5000</v>
       </c>
@@ -5114,7 +5124,7 @@
         <v>0.33329999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>7000</v>
       </c>
@@ -5131,7 +5141,7 @@
         <v>0.66669999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>9000</v>
       </c>
@@ -5148,7 +5158,7 @@
         <v>1.6667000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>11000</v>
       </c>
@@ -5165,7 +5175,7 @@
         <v>1.3332999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>13000</v>
       </c>
@@ -5182,7 +5192,7 @@
         <v>1.3332999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>15000</v>
       </c>
@@ -5199,7 +5209,7 @@
         <v>1.6667000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>17000</v>
       </c>
@@ -5216,7 +5226,7 @@
         <v>1.6667000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>19000</v>
       </c>
@@ -5233,7 +5243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>21000</v>
       </c>
@@ -5261,48 +5271,49 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13FC6417-3C7E-4ECC-A479-B03F18B352D3}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1000</v>
       </c>
@@ -5319,7 +5330,7 @@
         <v>0.66669999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3000</v>
       </c>
@@ -5336,7 +5347,7 @@
         <v>0.66669999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5000</v>
       </c>
@@ -5353,7 +5364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>7000</v>
       </c>
@@ -5370,7 +5381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>9000</v>
       </c>
@@ -5387,7 +5398,7 @@
         <v>1.3332999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>11000</v>
       </c>
@@ -5404,7 +5415,7 @@
         <v>1.6667000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>13000</v>
       </c>
@@ -5421,7 +5432,7 @@
         <v>1.3332999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>15000</v>
       </c>
@@ -5438,7 +5449,7 @@
         <v>2.3332999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>17000</v>
       </c>
@@ -5455,7 +5466,7 @@
         <v>2.3332999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>19000</v>
       </c>
@@ -5472,7 +5483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>21000</v>
       </c>

--- a/Evaluate sorting algorithms.xlsx
+++ b/Evaluate sorting algorithms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://linuxvn-my.sharepoint.com/personal/ga59_linuxteamvietnam_edu_vn/Documents/UIT/Cấu trúc dữ liệu và giải thuật/evaluate-sorting-algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{6784F045-3861-49D4-AA08-3BE9A77498E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{032D599D-DE08-4CC7-B5BA-9F6867A65735}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="13_ncr:1_{6784F045-3861-49D4-AA08-3BE9A77498E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{121C8F6B-9766-4C77-8924-9576F3F4C0F1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{763B0E15-42E0-4774-993B-D559CEC4F9AD}"/>
   </bookViews>
@@ -58,9 +58,6 @@
     <t>Ascending</t>
   </si>
   <si>
-    <t>Decending</t>
-  </si>
-  <si>
     <t>Randomize</t>
   </si>
   <si>
@@ -74,6 +71,9 @@
   </si>
   <si>
     <t>Execute time (nanosecond)</t>
+  </si>
+  <si>
+    <t>Descending</t>
   </si>
 </sst>
 </file>
@@ -238,6 +238,12 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -251,12 +257,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -442,7 +442,7 @@
                   <c:v>Ascending</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Decending</c:v>
+                  <c:v>Descending</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Randomize</c:v>
@@ -530,7 +530,7 @@
                   <c:v>Ascending</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Decending</c:v>
+                  <c:v>Descending</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Randomize</c:v>
@@ -618,7 +618,7 @@
                   <c:v>Ascending</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Decending</c:v>
+                  <c:v>Descending</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Randomize</c:v>
@@ -1472,7 +1472,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Decending</c:v>
+                  <c:v>Descending</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4325,7 +4325,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4350,10 +4350,10 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="9"/>
+      <c r="C2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="11"/>
       <c r="E2" s="8">
         <v>1000</v>
       </c>
@@ -4363,34 +4363,34 @@
         <f ca="1">INDIRECT("B"&amp;A1 + 5)</f>
         <v>Radix Sort</v>
       </c>
-      <c r="J3" s="15" t="str">
+      <c r="J3" s="10" t="str">
         <f t="array" aca="1" ref="J3:N13" ca="1">AlgorithmRadioButton</f>
         <v>Input file</v>
       </c>
-      <c r="K3" s="15" t="str">
+      <c r="K3" s="10" t="str">
         <f ca="1"/>
         <v>Ascending</v>
       </c>
-      <c r="L3" s="15" t="str">
+      <c r="L3" s="10" t="str">
         <f ca="1"/>
-        <v>Decending</v>
-      </c>
-      <c r="M3" s="15" t="str">
+        <v>Descending</v>
+      </c>
+      <c r="M3" s="10" t="str">
         <f ca="1"/>
         <v>Randomize</v>
       </c>
-      <c r="N3" s="15" t="str">
+      <c r="N3" s="10" t="str">
         <f ca="1"/>
         <v>Average</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
+      <c r="C4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
       <c r="J4" s="7">
         <f ca="1"/>
         <v>1000</v>
@@ -4414,20 +4414,20 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="14" t="s">
+      <c r="B5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="F5" s="9" t="s">
         <v>5</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>6</v>
       </c>
       <c r="J5" s="7">
         <f ca="1"/>
@@ -4795,7 +4795,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4808,29 +4808,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="14" t="s">
+      <c r="A2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -5035,7 +5035,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5048,29 +5048,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="A1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="14" t="s">
+      <c r="A2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -5275,7 +5275,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5288,29 +5288,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="14" t="s">
+      <c r="A2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">

--- a/Evaluate sorting algorithms.xlsx
+++ b/Evaluate sorting algorithms.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://linuxvn-my.sharepoint.com/personal/ga59_linuxteamvietnam_edu_vn/Documents/UIT/Cấu trúc dữ liệu và giải thuật/evaluate-sorting-algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="13_ncr:1_{6784F045-3861-49D4-AA08-3BE9A77498E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{121C8F6B-9766-4C77-8924-9576F3F4C0F1}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:1_{6784F045-3861-49D4-AA08-3BE9A77498E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2169A150-916D-4F56-AC4E-C77DCD081EA0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{763B0E15-42E0-4774-993B-D559CEC4F9AD}"/>
   </bookViews>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0\ \n\s"/>
     <numFmt numFmtId="165" formatCode="General\ \m\s"/>
@@ -264,7 +264,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{B4899899-8408-4107-BC83-13DD92AB2981}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -454,7 +456,7 @@
             <c:numRef>
               <c:f>'Execute time summary'!$C$6:$E$6</c:f>
               <c:numCache>
-                <c:formatCode>#,##0\ \n\s</c:formatCode>
+                <c:formatCode>#.##0\ \n\s</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1000000</c:v>
@@ -542,7 +544,7 @@
             <c:numRef>
               <c:f>'Execute time summary'!$C$7:$E$7</c:f>
               <c:numCache>
-                <c:formatCode>#,##0\ \n\s</c:formatCode>
+                <c:formatCode>#.##0\ \n\s</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -630,7 +632,7 @@
             <c:numRef>
               <c:f>'Execute time summary'!$C$8:$E$8</c:f>
               <c:numCache>
-                <c:formatCode>#,##0\ \n\s</c:formatCode>
+                <c:formatCode>#.##0\ \n\s</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -732,7 +734,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="#,##0\ \n\s" sourceLinked="1"/>
+        <c:numFmt formatCode="#.##0\ \n\s" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1071,7 +1073,7 @@
             <c:numRef>
               <c:f>'Execute time summary'!$F$6:$F$8</c:f>
               <c:numCache>
-                <c:formatCode>#,##0\ \n\s</c:formatCode>
+                <c:formatCode>#.##0\ \n\s</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>5666700</c:v>
@@ -1177,7 +1179,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="#,##0\ \n\s" sourceLinked="1"/>
+        <c:numFmt formatCode="#.##0\ \n\s" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1285,7 +1287,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Radix Sort</c:v>
+              <c:v>Interchange Sort</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -1425,34 +1427,34 @@
                 <c:formatCode>General\ \m\s</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>277</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>352</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1562,34 +1564,34 @@
                 <c:formatCode>General\ \m\s</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>282</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>509</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>820</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>1223</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>1711</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>2266</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>2912</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>3861</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1699,34 +1701,34 @@
                 <c:formatCode>General\ \m\s</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>267</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>344</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>434</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>529</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>639</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1791,34 +1793,34 @@
                 <c:formatCode>General\ \m\s</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.66669999999999996</c:v>
+                  <c:v>5.6666999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.66669999999999996</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>132.66669999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>232.33330000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3332999999999999</c:v>
+                  <c:v>366.66669999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6667000000000001</c:v>
+                  <c:v>535</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3332999999999999</c:v>
+                  <c:v>738.66669999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.3332999999999999</c:v>
+                  <c:v>972.66669999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.3332999999999999</c:v>
+                  <c:v>1239.3333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>1617.3333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3639,7 +3641,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" firstButton="1" fmlaLink="$A$1" lockText="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" checked="Checked" firstButton="1" fmlaLink="$A$1" lockText="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3647,7 +3649,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" checked="Checked" lockText="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4325,7 +4327,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4342,7 +4344,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="4" t="str">
         <f>"Compare algorithms with n = " &amp;E2</f>
@@ -4361,7 +4363,7 @@
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C3" s="4" t="str">
         <f ca="1">INDIRECT("B"&amp;A1 + 5)</f>
-        <v>Radix Sort</v>
+        <v>Interchange Sort</v>
       </c>
       <c r="J3" s="10" t="str">
         <f t="array" aca="1" ref="J3:N13" ca="1">AlgorithmRadioButton</f>
@@ -4397,19 +4399,19 @@
       </c>
       <c r="K4" s="6">
         <f ca="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="6">
         <f ca="1"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M4" s="6">
         <f ca="1"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N4" s="6">
         <f ca="1"/>
-        <v>0.66669999999999996</v>
+        <v>5.6666999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -4435,19 +4437,19 @@
       </c>
       <c r="K5" s="6">
         <f ca="1"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="L5" s="6">
         <f ca="1"/>
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="M5" s="6">
         <f ca="1"/>
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="N5" s="6">
         <f ca="1"/>
-        <v>0.66669999999999996</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -4479,19 +4481,19 @@
       </c>
       <c r="K6" s="6">
         <f ca="1"/>
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="L6" s="6">
         <f ca="1"/>
-        <v>1</v>
+        <v>282</v>
       </c>
       <c r="M6" s="6">
         <f ca="1"/>
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="N6" s="6">
         <f ca="1"/>
-        <v>1</v>
+        <v>132.66669999999999</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -4523,19 +4525,19 @@
       </c>
       <c r="K7" s="6">
         <f ca="1"/>
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="L7" s="6">
         <f ca="1"/>
-        <v>1</v>
+        <v>509</v>
       </c>
       <c r="M7" s="6">
         <f ca="1"/>
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="N7" s="6">
         <f ca="1"/>
-        <v>1</v>
+        <v>232.33330000000001</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -4567,19 +4569,19 @@
       </c>
       <c r="K8" s="6">
         <f ca="1"/>
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="L8" s="6">
         <f ca="1"/>
-        <v>1</v>
+        <v>820</v>
       </c>
       <c r="M8" s="6">
         <f ca="1"/>
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="N8" s="6">
         <f ca="1"/>
-        <v>1.3332999999999999</v>
+        <v>366.66669999999999</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -4589,19 +4591,19 @@
       </c>
       <c r="K9" s="6">
         <f ca="1"/>
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="L9" s="6">
         <f ca="1"/>
-        <v>1</v>
+        <v>1223</v>
       </c>
       <c r="M9" s="6">
         <f ca="1"/>
-        <v>2</v>
+        <v>267</v>
       </c>
       <c r="N9" s="6">
         <f ca="1"/>
-        <v>1.6667000000000001</v>
+        <v>535</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -4611,19 +4613,19 @@
       </c>
       <c r="K10" s="6">
         <f ca="1"/>
-        <v>2</v>
+        <v>161</v>
       </c>
       <c r="L10" s="6">
         <f ca="1"/>
-        <v>1</v>
+        <v>1711</v>
       </c>
       <c r="M10" s="6">
         <f ca="1"/>
-        <v>1</v>
+        <v>344</v>
       </c>
       <c r="N10" s="6">
         <f ca="1"/>
-        <v>1.3332999999999999</v>
+        <v>738.66669999999999</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -4633,19 +4635,19 @@
       </c>
       <c r="K11" s="6">
         <f ca="1"/>
-        <v>3</v>
+        <v>218</v>
       </c>
       <c r="L11" s="6">
         <f ca="1"/>
-        <v>3</v>
+        <v>2266</v>
       </c>
       <c r="M11" s="6">
         <f ca="1"/>
-        <v>1</v>
+        <v>434</v>
       </c>
       <c r="N11" s="6">
         <f ca="1"/>
-        <v>2.3332999999999999</v>
+        <v>972.66669999999999</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -4655,19 +4657,19 @@
       </c>
       <c r="K12" s="6">
         <f ca="1"/>
-        <v>2</v>
+        <v>277</v>
       </c>
       <c r="L12" s="6">
         <f ca="1"/>
-        <v>3</v>
+        <v>2912</v>
       </c>
       <c r="M12" s="6">
         <f ca="1"/>
-        <v>2</v>
+        <v>529</v>
       </c>
       <c r="N12" s="6">
         <f ca="1"/>
-        <v>2.3332999999999999</v>
+        <v>1239.3333</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -4677,19 +4679,19 @@
       </c>
       <c r="K13" s="6">
         <f ca="1"/>
-        <v>3</v>
+        <v>352</v>
       </c>
       <c r="L13" s="6">
         <f ca="1"/>
-        <v>3</v>
+        <v>3861</v>
       </c>
       <c r="M13" s="6">
         <f ca="1"/>
-        <v>3</v>
+        <v>639</v>
       </c>
       <c r="N13" s="6">
         <f ca="1"/>
-        <v>3</v>
+        <v>1617.3333</v>
       </c>
     </row>
   </sheetData>
@@ -4777,7 +4779,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Nhập Input:" prompt="Chọn tập dữ liệu tương ứng với số lượng phần tử cần sắp xếp" xr:uid="{AB264513-C7C4-454B-BBBC-DF133826BF70}">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Input file name:" prompt="Select the dataset corresponding to the number of elements to sort" xr:uid="{AB264513-C7C4-454B-BBBC-DF133826BF70}">
           <x14:formula1>
             <xm:f>'Interchange Sort'!$A$3:$A$13</xm:f>
           </x14:formula1>
